--- a/REGULAR SALARY BILLS/MEO G L PURAM/MEO G L PURAM MAR-2023/MAR 2023.xlsx
+++ b/REGULAR SALARY BILLS/MEO G L PURAM/MEO G L PURAM MAR-2023/MAR 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\REGULAR SALARY BILLS\MEO G L PURAM\MEO G L PURAM MAR-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774072E4-8341-4A0D-A0DB-6B4E06E3C0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D429986A-15E3-46CA-8EDE-C77ADFC9CA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2215,6 +2215,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2254,26 +2261,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2283,13 +2290,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5882,11 +5882,11 @@
   <dimension ref="A1:AK83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="W9" sqref="W9"/>
       <selection pane="topRight" activeCell="W9" sqref="W9"/>
       <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
-      <selection pane="bottomRight" activeCell="Z2" sqref="Z1:Z1048576"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5929,35 +5929,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="172" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
       <c r="AH1" s="43"/>
       <c r="AI1" s="43"/>
     </row>
@@ -14039,62 +14039,62 @@
       <c r="Q3" s="186"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="187" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="187" t="s">
+      <c r="D4" s="188" t="s">
         <v>319</v>
       </c>
-      <c r="E4" s="184" t="s">
+      <c r="E4" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="184" t="s">
+      <c r="F4" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="184" t="s">
+      <c r="G4" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="H4" s="184" t="s">
+      <c r="H4" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184" t="s">
+      <c r="I4" s="187"/>
+      <c r="J4" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184" t="s">
+      <c r="K4" s="187"/>
+      <c r="L4" s="187" t="s">
         <v>296</v>
       </c>
-      <c r="M4" s="184" t="s">
+      <c r="M4" s="187" t="s">
         <v>281</v>
       </c>
-      <c r="N4" s="184" t="s">
+      <c r="N4" s="187" t="s">
         <v>282</v>
       </c>
-      <c r="O4" s="184" t="s">
+      <c r="O4" s="187" t="s">
         <v>297</v>
       </c>
-      <c r="P4" s="184" t="s">
+      <c r="P4" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="Q4" s="184" t="s">
+      <c r="Q4" s="187" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="184"/>
-      <c r="B5" s="188"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
+      <c r="A5" s="187"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
       <c r="H5" s="21" t="s">
         <v>298</v>
       </c>
@@ -14107,12 +14107,12 @@
       <c r="K5" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="187"/>
+      <c r="Q5" s="187"/>
     </row>
     <row r="6" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="73">
@@ -15099,13 +15099,20 @@
       <c r="B29" s="28"/>
     </row>
     <row r="31" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N31" s="182"/>
-      <c r="O31" s="183"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="183"/>
+      <c r="N31" s="190"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="191"/>
+      <c r="Q31" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -15118,13 +15125,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15138,13 +15138,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR85"/>
+  <dimension ref="A1:AR87"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46:XFD46"/>
+      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15187,35 +15187,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="43" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="173" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
       <c r="AB1" s="49"/>
       <c r="AE1" s="95"/>
       <c r="AF1" s="96"/>
@@ -23962,13 +23962,13 @@
       <c r="AK79" s="82"/>
     </row>
     <row r="80" spans="1:37" s="17" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="171" t="s">
+      <c r="A80" s="174" t="s">
         <v>259</v>
       </c>
-      <c r="B80" s="171"/>
-      <c r="C80" s="171"/>
-      <c r="D80" s="171"/>
-      <c r="E80" s="171"/>
+      <c r="B80" s="174"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="174"/>
+      <c r="E80" s="174"/>
       <c r="F80" s="18">
         <f t="shared" ref="F80:AA80" si="25">SUM(F3:F79)</f>
         <v>4686770</v>
@@ -24179,6 +24179,12 @@
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Z85" s="45"/>
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="F87" s="5">
+        <f>77+70</f>
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AR80" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -24222,32 +24228,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="177" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="178" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
@@ -24262,25 +24268,25 @@
       <c r="H4" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="I4" s="176">
+      <c r="I4" s="179">
         <v>45006</v>
       </c>
-      <c r="J4" s="176"/>
+      <c r="J4" s="179"/>
     </row>
     <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="177" t="s">
+      <c r="D6" s="180" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
       <c r="P6" s="58"/>
       <c r="Q6" s="58"/>
       <c r="R6" s="58"/>
@@ -24342,18 +24348,18 @@
       <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="178" t="s">
+      <c r="A11" s="181" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
       <c r="O11" s="58"/>
       <c r="P11" s="58"/>
       <c r="Q11" s="58"/>
@@ -24377,18 +24383,18 @@
       <c r="V12" s="58"/>
     </row>
     <row r="13" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="183" t="s">
         <v>272</v>
       </c>
-      <c r="B13" s="180"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
       <c r="O13" s="58"/>
       <c r="P13" s="58"/>
       <c r="Q13" s="58"/>
@@ -24419,18 +24425,18 @@
       <c r="V14" s="58"/>
     </row>
     <row r="15" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="183" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
       <c r="O15" s="58"/>
       <c r="P15" s="58"/>
       <c r="Q15" s="58"/>
@@ -24461,18 +24467,18 @@
       <c r="V16" s="58"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="180" t="s">
+      <c r="A17" s="183" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
       <c r="O17" s="58"/>
       <c r="P17" s="58"/>
       <c r="Q17" s="58"/>
@@ -24493,18 +24499,18 @@
       <c r="V18" s="58"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="181" t="s">
+      <c r="A19" s="184" t="s">
         <v>275</v>
       </c>
-      <c r="B19" s="181"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="181"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="184"/>
       <c r="O19" s="58"/>
       <c r="P19" s="58"/>
       <c r="Q19" s="58"/>
@@ -24525,18 +24531,18 @@
       <c r="V20" s="58"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="175" t="s">
+      <c r="A21" s="178" t="s">
         <v>276</v>
       </c>
-      <c r="B21" s="175"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="175"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
       <c r="O21" s="58"/>
       <c r="P21" s="58"/>
       <c r="Q21" s="58"/>
@@ -24684,15 +24690,15 @@
       <c r="J25" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="O25" s="172" t="s">
+      <c r="O25" s="175" t="s">
         <v>315</v>
       </c>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="172"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="172"/>
-      <c r="U25" s="172"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="175"/>
       <c r="V25" s="58"/>
       <c r="W25" s="58"/>
     </row>
@@ -24742,18 +24748,18 @@
       <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="B29" s="177"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="177"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
@@ -24786,12 +24792,12 @@
       <c r="D32" s="62"/>
       <c r="E32" s="36"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="173" t="s">
+      <c r="G32" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="173"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
@@ -24916,62 +24922,62 @@
       <c r="Q3" s="186"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="187" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="187" t="s">
+      <c r="D4" s="188" t="s">
         <v>319</v>
       </c>
-      <c r="E4" s="184" t="s">
+      <c r="E4" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="184" t="s">
+      <c r="F4" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="184" t="s">
+      <c r="G4" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="H4" s="184" t="s">
+      <c r="H4" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184" t="s">
+      <c r="I4" s="187"/>
+      <c r="J4" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184" t="s">
+      <c r="K4" s="187"/>
+      <c r="L4" s="187" t="s">
         <v>296</v>
       </c>
-      <c r="M4" s="184" t="s">
+      <c r="M4" s="187" t="s">
         <v>281</v>
       </c>
-      <c r="N4" s="184" t="s">
+      <c r="N4" s="187" t="s">
         <v>282</v>
       </c>
-      <c r="O4" s="184" t="s">
+      <c r="O4" s="187" t="s">
         <v>297</v>
       </c>
-      <c r="P4" s="184" t="s">
+      <c r="P4" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="Q4" s="184" t="s">
+      <c r="Q4" s="187" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="184"/>
-      <c r="B5" s="188"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
+      <c r="A5" s="187"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
       <c r="H5" s="21" t="s">
         <v>298</v>
       </c>
@@ -24984,12 +24990,12 @@
       <c r="K5" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="187"/>
+      <c r="Q5" s="187"/>
     </row>
     <row r="6" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
@@ -25248,13 +25254,20 @@
       <c r="B15" s="28"/>
     </row>
     <row r="17" spans="14:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N17" s="182"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="183"/>
+      <c r="N17" s="190"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -25267,13 +25280,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -25310,12 +25316,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="192" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -25327,17 +25333,17 @@
       <c r="C2" s="79" t="s">
         <v>326</v>
       </c>
-      <c r="F2" s="189" t="s">
+      <c r="F2" s="192" t="s">
         <v>351</v>
       </c>
-      <c r="G2" s="189"/>
+      <c r="G2" s="192"/>
       <c r="I2" s="81"/>
-      <c r="L2" s="189" t="s">
+      <c r="L2" s="192" t="s">
         <v>349</v>
       </c>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="192"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="79">
@@ -25367,15 +25373,15 @@
       <c r="O3" s="81" t="s">
         <v>328</v>
       </c>
-      <c r="Z3" s="190" t="s">
+      <c r="Z3" s="193" t="s">
         <v>323</v>
       </c>
-      <c r="AA3" s="190"/>
-      <c r="AB3" s="190"/>
-      <c r="AC3" s="190"/>
-      <c r="AD3" s="190"/>
-      <c r="AE3" s="190"/>
-      <c r="AF3" s="190"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="193"/>
+      <c r="AC3" s="193"/>
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="193"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="79">
@@ -25419,13 +25425,13 @@
       <c r="S4" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="Z4" s="190"/>
-      <c r="AA4" s="190"/>
-      <c r="AB4" s="190"/>
-      <c r="AC4" s="190"/>
-      <c r="AD4" s="190"/>
-      <c r="AE4" s="190"/>
-      <c r="AF4" s="190"/>
+      <c r="Z4" s="193"/>
+      <c r="AA4" s="193"/>
+      <c r="AB4" s="193"/>
+      <c r="AC4" s="193"/>
+      <c r="AD4" s="193"/>
+      <c r="AE4" s="193"/>
+      <c r="AF4" s="193"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="79">
@@ -25469,13 +25475,13 @@
       <c r="S5" s="79" t="s">
         <v>339</v>
       </c>
-      <c r="Z5" s="190"/>
-      <c r="AA5" s="190"/>
-      <c r="AB5" s="190"/>
-      <c r="AC5" s="190"/>
-      <c r="AD5" s="190"/>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="190"/>
+      <c r="Z5" s="193"/>
+      <c r="AA5" s="193"/>
+      <c r="AB5" s="193"/>
+      <c r="AC5" s="193"/>
+      <c r="AD5" s="193"/>
+      <c r="AE5" s="193"/>
+      <c r="AF5" s="193"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="79">
@@ -25518,13 +25524,13 @@
       <c r="S6" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="Z6" s="190"/>
-      <c r="AA6" s="190"/>
-      <c r="AB6" s="190"/>
-      <c r="AC6" s="190"/>
-      <c r="AD6" s="190"/>
-      <c r="AE6" s="190"/>
-      <c r="AF6" s="190"/>
+      <c r="Z6" s="193"/>
+      <c r="AA6" s="193"/>
+      <c r="AB6" s="193"/>
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="193"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="79">
@@ -25568,13 +25574,13 @@
       <c r="S7" s="79" t="s">
         <v>347</v>
       </c>
-      <c r="Z7" s="190"/>
-      <c r="AA7" s="190"/>
-      <c r="AB7" s="190"/>
-      <c r="AC7" s="190"/>
-      <c r="AD7" s="190"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="190"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="193"/>
+      <c r="AB7" s="193"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="193"/>
+      <c r="AE7" s="193"/>
+      <c r="AF7" s="193"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="79">
@@ -25618,13 +25624,13 @@
       <c r="S8" s="79" t="s">
         <v>343</v>
       </c>
-      <c r="Z8" s="190"/>
-      <c r="AA8" s="190"/>
-      <c r="AB8" s="190"/>
-      <c r="AC8" s="190"/>
-      <c r="AD8" s="190"/>
-      <c r="AE8" s="190"/>
-      <c r="AF8" s="190"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="193"/>
+      <c r="AB8" s="193"/>
+      <c r="AC8" s="193"/>
+      <c r="AD8" s="193"/>
+      <c r="AE8" s="193"/>
+      <c r="AF8" s="193"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
@@ -26105,15 +26111,15 @@
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="J34" s="190" t="s">
+      <c r="J34" s="193" t="s">
         <v>323</v>
       </c>
-      <c r="K34" s="190"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="190"/>
-      <c r="O34" s="190"/>
-      <c r="P34" s="190"/>
+      <c r="K34" s="193"/>
+      <c r="L34" s="193"/>
+      <c r="M34" s="193"/>
+      <c r="N34" s="193"/>
+      <c r="O34" s="193"/>
+      <c r="P34" s="193"/>
     </row>
     <row r="35" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F35" s="86">
@@ -26124,13 +26130,13 @@
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="J35" s="190"/>
-      <c r="K35" s="190"/>
-      <c r="L35" s="190"/>
-      <c r="M35" s="190"/>
-      <c r="N35" s="190"/>
-      <c r="O35" s="190"/>
-      <c r="P35" s="190"/>
+      <c r="J35" s="193"/>
+      <c r="K35" s="193"/>
+      <c r="L35" s="193"/>
+      <c r="M35" s="193"/>
+      <c r="N35" s="193"/>
+      <c r="O35" s="193"/>
+      <c r="P35" s="193"/>
     </row>
     <row r="36" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F36" s="86">
@@ -26140,13 +26146,13 @@
       <c r="G36" s="86">
         <v>1460</v>
       </c>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="190"/>
-      <c r="P36" s="190"/>
+      <c r="J36" s="193"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="193"/>
+      <c r="M36" s="193"/>
+      <c r="N36" s="193"/>
+      <c r="O36" s="193"/>
+      <c r="P36" s="193"/>
     </row>
     <row r="37" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F37" s="86">
@@ -26157,13 +26163,13 @@
         <f t="shared" ref="G37:G74" si="3">G36</f>
         <v>1460</v>
       </c>
-      <c r="J37" s="190"/>
-      <c r="K37" s="190"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="190"/>
-      <c r="N37" s="190"/>
-      <c r="O37" s="190"/>
-      <c r="P37" s="190"/>
+      <c r="J37" s="193"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="193"/>
+      <c r="N37" s="193"/>
+      <c r="O37" s="193"/>
+      <c r="P37" s="193"/>
     </row>
     <row r="38" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F38" s="86">
@@ -26174,13 +26180,13 @@
         <f t="shared" si="3"/>
         <v>1460</v>
       </c>
-      <c r="J38" s="190"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="190"/>
-      <c r="P38" s="190"/>
+      <c r="J38" s="193"/>
+      <c r="K38" s="193"/>
+      <c r="L38" s="193"/>
+      <c r="M38" s="193"/>
+      <c r="N38" s="193"/>
+      <c r="O38" s="193"/>
+      <c r="P38" s="193"/>
     </row>
     <row r="39" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F39" s="86">
@@ -26190,13 +26196,13 @@
       <c r="G39" s="86">
         <v>1580</v>
       </c>
-      <c r="J39" s="190"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
-      <c r="N39" s="190"/>
-      <c r="O39" s="190"/>
-      <c r="P39" s="190"/>
+      <c r="J39" s="193"/>
+      <c r="K39" s="193"/>
+      <c r="L39" s="193"/>
+      <c r="M39" s="193"/>
+      <c r="N39" s="193"/>
+      <c r="O39" s="193"/>
+      <c r="P39" s="193"/>
     </row>
     <row r="40" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F40" s="86">
@@ -26579,15 +26585,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="194" t="s">
         <v>365</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="158" t="s">
@@ -27332,7 +27338,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="169" t="s">
         <v>371</v>
       </c>
       <c r="B1" s="162"/>
@@ -27365,10 +27371,10 @@
       <c r="G2" s="163" t="s">
         <v>375</v>
       </c>
-      <c r="I2" s="194" t="s">
+      <c r="I2" s="171" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="194" t="s">
+      <c r="J2" s="171" t="s">
         <v>413</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -30164,7 +30170,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="169" t="s">
         <v>371</v>
       </c>
       <c r="B1" s="162"/>
@@ -30507,7 +30513,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="193">
+      <c r="K9" s="170">
         <v>14344475</v>
       </c>
       <c r="L9" s="162">
@@ -31299,7 +31305,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="193">
+      <c r="K27" s="170">
         <v>14344522</v>
       </c>
       <c r="L27" s="162">
@@ -32443,7 +32449,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K53" s="193">
+      <c r="K53" s="170">
         <v>14351475</v>
       </c>
       <c r="L53" s="162">
@@ -32971,7 +32977,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K65" s="193">
+      <c r="K65" s="170">
         <v>14355343</v>
       </c>
       <c r="L65" s="162">
@@ -33191,7 +33197,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K70" s="193">
+      <c r="K70" s="170">
         <v>14371715</v>
       </c>
       <c r="L70" s="162">
@@ -33499,7 +33505,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K77" s="193">
+      <c r="K77" s="170">
         <v>14713516</v>
       </c>
       <c r="L77" s="162">
@@ -33621,32 +33627,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="177" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="178" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
@@ -33661,25 +33667,25 @@
       <c r="H4" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="I4" s="176">
+      <c r="I4" s="179">
         <v>44947</v>
       </c>
-      <c r="J4" s="176"/>
+      <c r="J4" s="179"/>
     </row>
     <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="177" t="s">
+      <c r="D6" s="180" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
       <c r="P6" s="58"/>
       <c r="Q6" s="58"/>
       <c r="R6" s="58"/>
@@ -33741,18 +33747,18 @@
       <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="178" t="s">
+      <c r="A11" s="181" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
       <c r="O11" s="58"/>
       <c r="P11" s="58"/>
       <c r="Q11" s="58"/>
@@ -33776,18 +33782,18 @@
       <c r="V12" s="58"/>
     </row>
     <row r="13" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="183" t="s">
         <v>272</v>
       </c>
-      <c r="B13" s="180"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
       <c r="O13" s="58"/>
       <c r="P13" s="58"/>
       <c r="Q13" s="58"/>
@@ -33818,18 +33824,18 @@
       <c r="V14" s="58"/>
     </row>
     <row r="15" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="183" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
       <c r="O15" s="58"/>
       <c r="P15" s="58"/>
       <c r="Q15" s="58"/>
@@ -33860,18 +33866,18 @@
       <c r="V16" s="58"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="180" t="s">
+      <c r="A17" s="183" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
       <c r="O17" s="58"/>
       <c r="P17" s="58"/>
       <c r="Q17" s="58"/>
@@ -33892,18 +33898,18 @@
       <c r="V18" s="58"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="181" t="s">
+      <c r="A19" s="184" t="s">
         <v>275</v>
       </c>
-      <c r="B19" s="181"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="181"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="184"/>
       <c r="O19" s="58"/>
       <c r="P19" s="58"/>
       <c r="Q19" s="58"/>
@@ -33924,18 +33930,18 @@
       <c r="V20" s="58"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="175" t="s">
+      <c r="A21" s="178" t="s">
         <v>276</v>
       </c>
-      <c r="B21" s="175"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="175"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
       <c r="O21" s="58"/>
       <c r="P21" s="58"/>
       <c r="Q21" s="58"/>
@@ -34089,15 +34095,15 @@
       <c r="J25" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="O25" s="172" t="s">
+      <c r="O25" s="175" t="s">
         <v>315</v>
       </c>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="172"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="172"/>
-      <c r="U25" s="172"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="175"/>
       <c r="V25" s="58"/>
       <c r="W25" s="58"/>
     </row>
@@ -34135,13 +34141,13 @@
       <c r="J26" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="O26" s="172"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="172"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172"/>
-      <c r="U26" s="172"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="175"/>
       <c r="V26" s="58"/>
       <c r="W26" s="58"/>
     </row>
@@ -34179,13 +34185,13 @@
       <c r="J27" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="O27" s="172"/>
-      <c r="P27" s="172"/>
-      <c r="Q27" s="172"/>
-      <c r="R27" s="172"/>
-      <c r="S27" s="172"/>
-      <c r="T27" s="172"/>
-      <c r="U27" s="172"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
+      <c r="U27" s="175"/>
       <c r="V27" s="58"/>
       <c r="W27" s="58"/>
     </row>
@@ -34223,13 +34229,13 @@
       <c r="J28" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="O28" s="172"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="172"/>
-      <c r="R28" s="172"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="172"/>
-      <c r="U28" s="172"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
       <c r="V28" s="58"/>
       <c r="W28" s="58"/>
     </row>
@@ -34267,13 +34273,13 @@
       <c r="J29" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="172"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="172"/>
-      <c r="T29" s="172"/>
-      <c r="U29" s="172"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
       <c r="V29" s="58"/>
       <c r="W29" s="58"/>
     </row>
@@ -34311,13 +34317,13 @@
       <c r="J30" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="O30" s="172"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="172"/>
-      <c r="R30" s="172"/>
-      <c r="S30" s="172"/>
-      <c r="T30" s="172"/>
-      <c r="U30" s="172"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="175"/>
+      <c r="U30" s="175"/>
       <c r="V30" s="58"/>
       <c r="W30" s="58"/>
     </row>
@@ -34763,18 +34769,18 @@
       <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="177" t="s">
+      <c r="A43" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
-      <c r="E43" s="177"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="177"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="177"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="180"/>
+      <c r="G43" s="180"/>
+      <c r="H43" s="180"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="180"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="37"/>
@@ -34807,12 +34813,12 @@
       <c r="D46" s="62"/>
       <c r="E46" s="36"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="173" t="s">
+      <c r="G46" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="H46" s="173"/>
-      <c r="I46" s="173"/>
-      <c r="J46" s="173"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="176"/>
+      <c r="J46" s="176"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
@@ -34826,6 +34832,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
     <mergeCell ref="O25:U30"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A1:J1"/>
@@ -34834,11 +34845,6 @@
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A21:J21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.4" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REGULAR SALARY BILLS/MEO G L PURAM/MEO G L PURAM MAR-2023/MAR 2023.xlsx
+++ b/REGULAR SALARY BILLS/MEO G L PURAM/MEO G L PURAM MAR-2023/MAR 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\REGULAR SALARY BILLS\MEO G L PURAM\MEO G L PURAM MAR-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D429986A-15E3-46CA-8EDE-C77ADFC9CA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7AEEC5-0CBD-4018-8D0D-47643EB84B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2261,26 +2261,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5882,11 +5882,11 @@
   <dimension ref="A1:AK83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F61" activePane="bottomRight" state="frozen"/>
       <selection activeCell="W9" sqref="W9"/>
       <selection pane="topRight" activeCell="W9" sqref="W9"/>
       <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13976,79 +13976,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="188" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="188" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
     </row>
     <row r="3" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="189" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="187" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="190" t="s">
         <v>191</v>
       </c>
       <c r="C4" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="188" t="s">
+      <c r="D4" s="190" t="s">
         <v>319</v>
       </c>
       <c r="E4" s="187" t="s">
@@ -14089,9 +14089,9 @@
     </row>
     <row r="5" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="187"/>
-      <c r="B5" s="189"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="187"/>
-      <c r="D5" s="189"/>
+      <c r="D5" s="191"/>
       <c r="E5" s="187"/>
       <c r="F5" s="187"/>
       <c r="G5" s="187"/>
@@ -15099,20 +15099,13 @@
       <c r="B29" s="28"/>
     </row>
     <row r="31" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N31" s="190"/>
-      <c r="O31" s="191"/>
-      <c r="P31" s="191"/>
-      <c r="Q31" s="191"/>
+      <c r="N31" s="185"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -15125,6 +15118,13 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -24859,79 +24859,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="188" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="188" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
     </row>
     <row r="3" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="189" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="187" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="190" t="s">
         <v>191</v>
       </c>
       <c r="C4" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="188" t="s">
+      <c r="D4" s="190" t="s">
         <v>319</v>
       </c>
       <c r="E4" s="187" t="s">
@@ -24972,9 +24972,9 @@
     </row>
     <row r="5" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="187"/>
-      <c r="B5" s="189"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="187"/>
-      <c r="D5" s="189"/>
+      <c r="D5" s="191"/>
       <c r="E5" s="187"/>
       <c r="F5" s="187"/>
       <c r="G5" s="187"/>
@@ -25254,20 +25254,13 @@
       <c r="B15" s="28"/>
     </row>
     <row r="17" spans="14:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N17" s="190"/>
-      <c r="O17" s="191"/>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="191"/>
+      <c r="N17" s="185"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="186"/>
+      <c r="Q17" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -25280,6 +25273,13 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -34832,11 +34832,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A21:J21"/>
     <mergeCell ref="O25:U30"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A1:J1"/>
@@ -34845,6 +34840,11 @@
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.4" bottom="0.75" header="0.3" footer="0.3"/>
